--- a/mcmaster_excel/Stainless_Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
+++ b/mcmaster_excel/Stainless_Steel_Pan_Head_Screws_with_Internal-Tooth_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.167"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.063"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.185"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.016"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>95345A012</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$12.67</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.167"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.063"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.185"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.016"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>95345A014</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -663,7 +575,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -673,7 +585,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.013"</t>
+          <t>0.016"</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -693,17 +605,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>95345A611</t>
+          <t>95345A012</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>$12.67</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>95345A016</t>
+          <t>95345A014</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>13.05</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -807,7 +719,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.063"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -817,7 +729,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.016"</t>
+          <t>0.013"</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -837,17 +749,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>95345A018</t>
+          <t>95345A611</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>17.52</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -909,17 +821,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>95345A019</t>
+          <t>95345A016</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -981,17 +893,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>95345A020</t>
+          <t>95345A018</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1018,22 +930,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.268"</t>
+          <t>0.185"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.018"</t>
+          <t>0.016"</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1053,22 +965,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>95345A021</t>
+          <t>95345A019</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>12.53</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1090,22 +1002,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>0.167"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.063"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.268"</t>
+          <t>0.185"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.018"</t>
+          <t>0.016"</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1125,22 +1037,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>95345A023</t>
+          <t>95345A020</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1202,12 +1114,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>95345A025</t>
+          <t>95345A021</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>12.53</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1274,12 +1186,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>95345A027</t>
+          <t>95345A023</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1346,12 +1258,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>95345A029</t>
+          <t>95345A025</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>95345A031</t>
+          <t>95345A027</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>95345A033</t>
+          <t>95345A029</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1557,17 +1469,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>95345A034</t>
+          <t>95345A031</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>14.94</t>
+          <t>9.34</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1629,17 +1541,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>95345A035</t>
+          <t>95345A033</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1706,12 +1618,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>95345A037</t>
+          <t>95345A034</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1738,27 +1650,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.288"</t>
+          <t>0.268"</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.021"</t>
+          <t>0.018"</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1773,22 +1685,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>95345A041</t>
+          <t>95345A035</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1810,27 +1722,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.288"</t>
+          <t>0.268"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.021"</t>
+          <t>0.018"</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1845,22 +1757,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>95345A043</t>
+          <t>95345A037</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1922,12 +1834,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>95345A045</t>
+          <t>95345A041</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1994,12 +1906,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>95345A047</t>
+          <t>95345A043</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2066,12 +1978,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>95345A049</t>
+          <t>95345A045</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13.53</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2138,12 +2050,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>95345A051</t>
+          <t>95345A047</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2210,12 +2122,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>95345A053</t>
+          <t>95345A049</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>13.53</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2282,12 +2194,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>95345A055</t>
+          <t>95345A051</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>16.56</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2349,17 +2261,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>95345A059</t>
+          <t>95345A053</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2421,17 +2333,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>95345A061</t>
+          <t>95345A055</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>16.56</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2493,17 +2405,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>95345A056</t>
+          <t>95345A059</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2565,17 +2477,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>95345A057</t>
+          <t>95345A061</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2642,12 +2554,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>95345A058</t>
+          <t>95345A056</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2674,22 +2586,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.338"</t>
+          <t>0.288"</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.023"</t>
+          <t>0.021"</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2709,22 +2621,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>95345A063</t>
+          <t>95345A057</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2746,22 +2658,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.338"</t>
+          <t>0.288"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.023"</t>
+          <t>0.021"</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2781,22 +2693,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>95345A067</t>
+          <t>95345A058</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2858,12 +2770,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>95345A071</t>
+          <t>95345A063</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2880,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2925,17 +2837,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>95345A075</t>
+          <t>95345A067</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2952,7 +2864,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2997,17 +2909,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>95345A077</t>
+          <t>95345A071</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3024,7 +2936,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3074,12 +2986,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>95345A081</t>
+          <t>95345A075</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>13.42</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3096,7 +3008,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3146,12 +3058,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>95345A085</t>
+          <t>95345A077</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3168,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3218,12 +3130,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>95345A089</t>
+          <t>95345A081</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>13.42</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3240,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3285,17 +3197,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>95345A087</t>
+          <t>95345A085</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>17.26</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3312,7 +3224,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3322,22 +3234,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.338"</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.023"</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3362,17 +3274,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>95345A200</t>
+          <t>95345A089</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3384,7 +3296,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3394,22 +3306,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.338"</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.023"</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3429,22 +3341,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>95345A205</t>
+          <t>95345A087</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3456,7 +3368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3506,12 +3418,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>95345A208</t>
+          <t>95345A200</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3528,7 +3440,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3578,17 +3490,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>95345A090</t>
+          <t>95345A205</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3600,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3650,17 +3562,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>95345A091</t>
+          <t>95345A208</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3672,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3722,12 +3634,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>95345A095</t>
+          <t>95345A090</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>10.61</t>
+          <t>15.25</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3744,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3794,12 +3706,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>95345A097</t>
+          <t>95345A091</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3816,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3866,12 +3778,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>95345A099</t>
+          <t>95345A095</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>17.24</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3888,7 +3800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3913,7 +3825,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.022"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3933,17 +3845,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>95345A612</t>
+          <t>95345A097</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3960,7 +3872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3985,7 +3897,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.022"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4005,17 +3917,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>95345A613</t>
+          <t>95345A099</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>17.24</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4032,7 +3944,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4042,27 +3954,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.478"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.028"</t>
+          <t>0.022"</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4077,22 +3989,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>95345A108</t>
+          <t>95345A612</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4104,7 +4016,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4114,27 +4026,27 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.478"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.028"</t>
+          <t>0.022"</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4149,22 +4061,22 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>95345A110</t>
+          <t>95345A613</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4176,7 +4088,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4226,12 +4138,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>95345A113</t>
+          <t>95345A108</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4248,7 +4160,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4298,12 +4210,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>95345A116</t>
+          <t>95345A110</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4320,7 +4232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4370,12 +4282,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>95345A119</t>
+          <t>95345A113</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4392,70 +4304,214 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0.478"</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.028"</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>95345A116</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0.478"</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.028"</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>95345A119</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0.478"</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>0.025"</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>95345A614</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>13.09</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
